--- a/Datatables/Scenario1.xlsx
+++ b/Datatables/Scenario1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KRISHRO\Workspace\Personal\Final\LT-TCS\Datatables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KRISHRO\Workspace_LT-TCS\Selenium Framework LT TCS\Datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F054B363-1377-43F9-9943-9986AE16F746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B312281-B149-43CF-A048-B60EE06613A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="766" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Business_Flow" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="277">
   <si>
     <t>Keyword_88</t>
   </si>
@@ -864,19 +864,10 @@
     <t>selectBankPortalAndLogin</t>
   </si>
   <si>
-    <t>loginError</t>
-  </si>
-  <si>
     <t>Error</t>
   </si>
   <si>
-    <t>Upload Image,40</t>
-  </si>
-  <si>
     <t>Path</t>
-  </si>
-  <si>
-    <t>Logout</t>
   </si>
 </sst>
 </file>
@@ -1380,11 +1371,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:IV5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15"/>
@@ -2186,15 +2177,6 @@
       <c r="D2" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>279</v>
-      </c>
     </row>
     <row r="3" spans="1:256">
       <c r="A3" s="6" t="s">
@@ -2209,9 +2191,6 @@
       <c r="D3" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>275</v>
-      </c>
     </row>
     <row r="4" spans="1:256">
       <c r="A4" s="6" t="s">
@@ -2226,9 +2205,6 @@
       <c r="D4" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>275</v>
-      </c>
     </row>
     <row r="5" spans="1:256">
       <c r="A5" s="6" t="s">
@@ -2242,9 +2218,6 @@
       </c>
       <c r="D5" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2259,7 +2232,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:BQ1593"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2344,10 +2317,10 @@
         <v>260</v>
       </c>
       <c r="J1" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>276</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>278</v>
       </c>
       <c r="L1"/>
       <c r="M1"/>
